--- a/plots.xlsx
+++ b/plots.xlsx
@@ -5,21 +5,31 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\39393\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Utenti\Verooo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA5A91C4-7E5C-49CE-8915-D89C5649BB9F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B5902C-DCE9-4B16-98F7-BB01C1334A54}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{3AE8094F-1D57-4129-A2E2-E62B2DD36B42}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3AE8094F-1D57-4129-A2E2-E62B2DD36B42}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
     <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
+    <sheet name="Foglio3" sheetId="3" r:id="rId3"/>
+    <sheet name="Foglio4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Foglio1!$A$1:$A$10</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Foglio3!$A$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Foglio3!$A$10</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Foglio3!$A$1:$A$9</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Foglio3!$A$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Foglio3!$A$10</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Foglio3!$A$1:$A$9</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Foglio3!$A$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Foglio3!$A$10</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Foglio3!$A$1:$A$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +37,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +49,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,6 +61,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -217,173 +232,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US"/>
-                      <a:t>3,963423</a:t>
-                    </a:r>
-                    <a:fld id="{4C726A5F-0043-405F-B56F-24B1C919FD58}" type="VALUE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[VALORE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-7EAB-47B8-B72B-234794AC0E56}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-                      <a:t>5,598686</a:t>
-                    </a:r>
-                    <a:fld id="{6777B2DB-CD38-4B34-8B57-1CA5CE4F41A0}" type="VALUE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[VALORE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-7EAB-47B8-B72B-234794AC0E56}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US"/>
-                      <a:t>1,088577</a:t>
-                    </a:r>
-                    <a:fld id="{281BCE33-B673-4AAC-B16B-95437EFFEDB2}" type="VALUE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[VALORE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-7EAB-47B8-B72B-234794AC0E56}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="it-IT"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
+            <c:delete val="1"/>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -730,7 +579,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -743,8 +592,15 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>path modification time testbed</a:t>
+              <a:rPr lang="it-IT" sz="1600" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Path modification time - TESTBED</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -762,7 +618,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -789,55 +645,73 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="10"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio2!$A$1:$A$19</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Foglio2!$A$1:$A$19</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Foglio2!$A$1:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.32311400000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.377E-3</c:v>
+                  <c:v>5.3769999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.16966500000000001</c:v>
@@ -846,7 +720,7 @@
                   <c:v>3.1700000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6900000000000001E-3</c:v>
+                  <c:v>4.6899999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8.0492999999999995E-2</c:v>
@@ -863,44 +737,16 @@
                 <c:pt idx="9">
                   <c:v>3.8310000000000002E-3</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.9189999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.6770000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.19381999999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.8684000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.7390000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7.3681999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.13226099999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.755E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.885E-3</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-03D2-4FCC-AADE-32E0C2771772}"/>
+              <c16:uniqueId val="{00000000-BBFE-4906-A831-856CDD56A3B7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -908,8 +754,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
         <c:axId val="585500280"/>
         <c:axId val="585499320"/>
       </c:barChart>
@@ -940,7 +786,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="it-IT"/>
+                  <a:rPr lang="it-IT" sz="900"/>
                   <a:t>samples</a:t>
                 </a:r>
               </a:p>
@@ -981,7 +827,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -997,7 +843,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1060,7 +906,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="it-IT"/>
+                  <a:rPr lang="it-IT" sz="900"/>
                   <a:t>time (s)</a:t>
                 </a:r>
               </a:p>
@@ -1129,7 +975,834 @@
         <c:crossAx val="585500280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="2.0000000000000004E-2"/>
+        <c:majorUnit val="5.000000000000001E-2"/>
+        <c:minorUnit val="4.000000000000001E-3"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Rules installation time in MININET SIMULATOR </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio3!$A$1:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.803E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3720000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3730000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3740000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3749999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3759999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.3769999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.378E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.3790000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.3800000000000003E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DC6F-4F37-9295-CE9E27DFAFF8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="481557016"/>
+        <c:axId val="481556360"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="481557016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>samples</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="481556360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="481556360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0000000000000002E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>time(s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="481557016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Path modification time - MININET SIMULATOR</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio4!$A$1:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.7420000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8799999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2560000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7599999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4529999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9069999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.042E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.4740000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6380000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.7679999999999997E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7A49-4479-BC85-C193456A9FA6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="522039528"/>
+        <c:axId val="522041168"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="522039528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="900"/>
+                  <a:t>samples</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="522041168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="522041168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="900"/>
+                  <a:t>time(s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="522039528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1256,6 +1929,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
   <cs:axisTitle>
@@ -1759,7 +2512,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1770,7 +2523,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -1783,7 +2536,7 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -1800,7 +2553,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1816,7 +2569,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -1860,35 +2613,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1900,31 +2653,30 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2026,8 +2778,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -2117,20 +2875,20 @@
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2143,17 +2901,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2185,7 +2932,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2194,13 +2941,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2254,8 +3002,1020 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2306,22 +4066,106 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07821879-267B-4D26-A9D1-AEA8CD903E65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>195262</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CB035B6-E430-4001-84E3-AC86048426EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>195262</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Grafico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E945D25-D8C9-42C8-9851-5F31691CABD1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9445B5C8-9517-46C4-94AA-317865C0F2B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2641,8 +4485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F959E5A9-55DA-4EB3-9264-302031E366BA}">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2708,8 +4552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FEEC1CE-7727-45B8-8837-CB256A330783}">
   <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2721,7 +4565,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1">
-        <v>1.377E-3</v>
+        <v>5.3769999999999998E-3</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -2736,7 +4580,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1">
-        <v>1.6900000000000001E-3</v>
+        <v>4.6899999999999997E-3</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -2765,48 +4609,163 @@
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="1">
-        <v>4.9189999999999998E-3</v>
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{597CC2D0-1628-4304-9201-B279882BFBEC}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>6.803E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1">
-        <v>3.6770000000000001E-3</v>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>7.3720000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1">
-        <v>0.19381999999999999</v>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>7.3730000000000002E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1">
-        <v>7.8684000000000004E-2</v>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>7.3740000000000003E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="3">
-        <v>4.7390000000000002E-3</v>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>7.3749999999999996E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1">
-        <v>7.3681999999999997E-2</v>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>7.3759999999999997E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1">
-        <v>0.13226099999999999</v>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>7.3769999999999999E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1">
-        <v>1.755E-3</v>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>7.378E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1">
-        <v>1.885E-3</v>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>7.3790000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <v>7.3800000000000003E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF368C8-2184-493B-A249-184FC7AFC6CC}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>3.7420000000000001E-3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>7.8799999999999999E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>3.2560000000000002E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>3.7599999999999999E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>3.4529999999999999E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>3.9069999999999999E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>3.042E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>3.4740000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>3.6380000000000002E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <v>4.7679999999999997E-3</v>
       </c>
     </row>
   </sheetData>

--- a/plots.xlsx
+++ b/plots.xlsx
@@ -5,30 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Utenti\Verooo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Utenti\Verooo\Desktop\PROGETTO S&amp;R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B5902C-DCE9-4B16-98F7-BB01C1334A54}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A89B5F5-2CF0-47D2-80C0-B6FE53516A19}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3AE8094F-1D57-4129-A2E2-E62B2DD36B42}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{3AE8094F-1D57-4129-A2E2-E62B2DD36B42}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
     <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
     <sheet name="Foglio3" sheetId="3" r:id="rId3"/>
     <sheet name="Foglio4" sheetId="4" r:id="rId4"/>
+    <sheet name="Foglio5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Foglio3!$A$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Foglio3!$A$10</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Foglio3!$A$1:$A$9</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Foglio3!$A$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Foglio3!$A$10</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Foglio3!$A$1:$A$9</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Foglio3!$A$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Foglio3!$A$10</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Foglio3!$A$1:$A$9</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,10 +31,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1849,6 +1835,630 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Mininet Simulator</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio5!$A$8:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio5!$A$1:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-893F-4573-89DE-1D49985191D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Testbed</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio5!$A$8:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio5!$C$1:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-893F-4573-89DE-1D49985191D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="443020040"/>
+        <c:axId val="443020696"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="443020040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>SPEED (KBIT/S)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="443020696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="443020696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>LOST DATAGRAMS (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="443020040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2009,6 +2619,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
   <cs:axisTitle>
@@ -3519,6 +4169,509 @@
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4186,6 +5339,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4DA6524-B32E-4E34-88E6-F46426983030}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
@@ -4485,7 +5679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F959E5A9-55DA-4EB3-9264-302031E366BA}">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
@@ -4772,4 +5966,66 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3F4786-3EB6-4948-8E24-C8F67C5A0B0C}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>1000</v>
+      </c>
+      <c r="D8">
+        <v>10000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/plots.xlsx
+++ b/plots.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Utenti\Verooo\Desktop\PROGETTO S&amp;R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco Sodano\Documents\PoliMi\Laurea Magistrale\S&amp;R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A89B5F5-2CF0-47D2-80C0-B6FE53516A19}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C534195E-D3D3-4175-8FF7-CE7DC17427EB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{3AE8094F-1D57-4129-A2E2-E62B2DD36B42}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{3AE8094F-1D57-4129-A2E2-E62B2DD36B42}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Foglio4" sheetId="4" r:id="rId4"/>
     <sheet name="Foglio5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -134,7 +135,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>Rules installation time</a:t>
+              <a:t>Rules installation time - TESTBED</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -170,7 +171,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.1540903772570589E-2"/>
+          <c:y val="0.10999867567209641"/>
+          <c:w val="0.90078841349650574"/>
+          <c:h val="0.78092091885415393"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -222,38 +233,32 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$A$1:$A$10</c:f>
+              <c:f>Foglio1!$A$1:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0" formatCode="#,##0">
-                  <c:v>3.9634230000000001</c:v>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.27818399999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.27818399999999999</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="#,##0">
-                  <c:v>5.5986859999999998</c:v>
+                  <c:v>4.4990000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8248999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4990000000000004E-3</c:v>
+                  <c:v>0.444517</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.8248999999999994E-2</c:v>
+                  <c:v>0.33728000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.444517</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.33728000000000002</c:v>
+                  <c:v>1.817E-3</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,##0">
+                  <c:v>1.0885769999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.817E-3</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="#,##0">
-                  <c:v>1.0885769999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>0.30131999999999998</c:v>
                 </c:pt>
               </c:numCache>
@@ -275,10 +280,246 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
         <c:axId val="564886520"/>
         <c:axId val="564888440"/>
       </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Average+Foglio1!$B$1:$B$8</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="5.2762988963728934E-2"/>
+                      <c:h val="0.25952864354411004"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-5C7C-4343-AF26-9E7352AB1897}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-5C7C-4343-AF26-9E7352AB1897}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-5C7C-4343-AF26-9E7352AB1897}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-5C7C-4343-AF26-9E7352AB1897}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-5C7C-4343-AF26-9E7352AB1897}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-5C7C-4343-AF26-9E7352AB1897}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-5C7C-4343-AF26-9E7352AB1897}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.82248995983935747"/>
+                  <c:y val="-2.3837902264600714E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-5C7C-4343-AF26-9E7352AB1897}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:schemeClr val="bg2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$B$1:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.31805537499999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31805537499999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31805537499999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31805537499999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.31805537499999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31805537499999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.31805537499999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.31805537499999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-5C7C-4343-AF26-9E7352AB1897}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="564886520"/>
+        <c:axId val="564888440"/>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="564886520"/>
         <c:scaling>
@@ -307,7 +548,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="it-IT"/>
-                  <a:t>samples</a:t>
+                  <a:t>Experiments</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -383,13 +624,14 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:tickMarkSkip val="21"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="564888440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.1000000000000001"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -397,16 +639,27 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -463,13 +716,15 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -496,7 +751,7 @@
         <c:crossAx val="564886520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="0.5"/>
+        <c:majorUnit val="0.1"/>
         <c:minorUnit val="1.0000000000000002E-2"/>
       </c:valAx>
       <c:spPr>
@@ -541,6 +796,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -557,6 +813,7 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -565,7 +822,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -578,14 +835,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="it-IT" sz="1600" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:rPr>
+              <a:rPr lang="it-IT"/>
               <a:t>Path modification time - TESTBED</a:t>
             </a:r>
           </a:p>
@@ -604,7 +854,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -622,7 +872,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.1540903772570589E-2"/>
+          <c:y val="0.10999867567209641"/>
+          <c:w val="0.90078841349650574"/>
+          <c:h val="0.78092091885415393"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -631,64 +891,49 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strLit>
-              <c:ptCount val="10"/>
-              <c:pt idx="0">
-                <c:v>1</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>2</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>3</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>4</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>5</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>6</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>7</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>8</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>9</c:v>
-              </c:pt>
-              <c:pt idx="9">
-                <c:v>10</c:v>
-              </c:pt>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:autoCat val="1"/>
-                </c:ext>
-              </c:extLst>
-            </c:strLit>
-          </c:cat>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Foglio2!$A$1:$A$19</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
               <c:f>Foglio2!$A$1:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -728,7 +973,260 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BBFE-4906-A831-856CDD56A3B7}"/>
+              <c16:uniqueId val="{00000000-7EAB-47B8-B72B-234794AC0E56}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:axId val="564886520"/>
+        <c:axId val="564888440"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-5C7C-4343-AF26-9E7352AB1897}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-5C7C-4343-AF26-9E7352AB1897}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-5C7C-4343-AF26-9E7352AB1897}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-5C7C-4343-AF26-9E7352AB1897}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-5C7C-4343-AF26-9E7352AB1897}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-5C7C-4343-AF26-9E7352AB1897}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-5C7C-4343-AF26-9E7352AB1897}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.59007470930143113"/>
+                  <c:y val="-2.6884893501657927E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-5C7C-4343-AF26-9E7352AB1897}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-3955-45F8-828E-4AF645B9CB08}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-3955-45F8-828E-4AF645B9CB08}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:schemeClr val="bg2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio2!$B$1:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8.3003900000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3003900000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3003900000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3003900000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.3003900000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.3003900000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.3003900000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.3003900000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.3003900000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.3003900000000005E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-5C7C-4343-AF26-9E7352AB1897}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -740,13 +1238,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="585500280"/>
-        <c:axId val="585499320"/>
-      </c:barChart>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="564886520"/>
+        <c:axId val="564888440"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="585500280"/>
+        <c:axId val="564886520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -772,8 +1270,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="it-IT" sz="900"/>
-                  <a:t>samples</a:t>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Titolo</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -813,7 +1311,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -829,7 +1327,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -844,7 +1342,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="585499320"/>
+        <c:crossAx val="564888440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -852,9 +1350,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="585499320"/>
+        <c:axId val="564888440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.33000000000000007"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -862,16 +1362,27 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -892,8 +1403,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="it-IT" sz="900"/>
-                  <a:t>time (s)</a:t>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Titolo</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -927,14 +1438,16 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -958,11 +1471,11 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="585500280"/>
+        <c:crossAx val="564886520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="5.000000000000001E-2"/>
-        <c:minorUnit val="4.000000000000001E-3"/>
+        <c:majorUnit val="0.1"/>
+        <c:minorUnit val="1.0000000000000002E-2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1006,6 +1519,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId4"/>
 </c:chartSpace>
 </file>
 
@@ -1022,20 +1536,35 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr lang="it-IT" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1043,12 +1572,30 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>Rules installation time in MININET SIMULATOR </a:t>
+              <a:rPr lang="it-IT" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Rules installation time - MININET SIMULATOR</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18551571945604575"/>
+          <c:y val="3.3269055848644716E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1058,16 +1605,30 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr lang="it-IT" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1080,7 +1641,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13962169034458691"/>
+          <c:y val="0.17139343692687922"/>
+          <c:w val="0.84270764147651156"/>
+          <c:h val="0.71952606405960606"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1089,15 +1660,47 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Foglio3!$A$1:$A$10</c:f>
@@ -1139,7 +1742,260 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DC6F-4F37-9295-CE9E27DFAFF8}"/>
+              <c16:uniqueId val="{00000000-7EAB-47B8-B72B-234794AC0E56}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:axId val="564886520"/>
+        <c:axId val="564888440"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-5C7C-4343-AF26-9E7352AB1897}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-5C7C-4343-AF26-9E7352AB1897}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-5C7C-4343-AF26-9E7352AB1897}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-5C7C-4343-AF26-9E7352AB1897}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-5C7C-4343-AF26-9E7352AB1897}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-5C7C-4343-AF26-9E7352AB1897}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-5C7C-4343-AF26-9E7352AB1897}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.5865514642973737"/>
+                  <c:y val="-5.9941931962888884E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-5C7C-4343-AF26-9E7352AB1897}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-A311-4B49-8DDC-45FDBE128916}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-A311-4B49-8DDC-45FDBE128916}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:schemeClr val="bg2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio3!$B$1:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.3187E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3187E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3187E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3187E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3187E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3187E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.3187E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.3187E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.3187E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.3187E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-5C7C-4343-AF26-9E7352AB1897}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1151,13 +2007,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="481557016"/>
-        <c:axId val="481556360"/>
-      </c:barChart>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="564886520"/>
+        <c:axId val="564888440"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="481557016"/>
+        <c:axId val="564886520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1170,7 +2026,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1184,11 +2040,19 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="it-IT"/>
-                  <a:t>samples</a:t>
+                  <a:t>Experiments</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.4541458992356272"/>
+              <c:y val="0.93721375295615794"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1202,7 +2066,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1224,7 +2088,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -1255,7 +2119,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481556360"/>
+        <c:crossAx val="564888440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1263,10 +2127,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="481556360"/>
+        <c:axId val="564888440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0000000000000002E-2"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1274,24 +2139,35 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1305,11 +2181,19 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="it-IT"/>
-                  <a:t>time(s)</a:t>
+                  <a:t>Time(s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.6074997748533733E-2"/>
+              <c:y val="0.47482453251473683"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1319,11 +2203,11 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1339,14 +2223,16 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1370,9 +2256,11 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481557016"/>
+        <c:crossAx val="564886520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1.5000000000000005E-3"/>
+        <c:minorUnit val="1.0000000000000002E-3"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1416,6 +2304,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId4"/>
 </c:chartSpace>
 </file>
 
@@ -1432,6 +2321,7 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1439,13 +2329,27 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1453,19 +2357,25 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="it-IT" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+              <a:rPr lang="it-IT" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
               </a:rPr>
-              <a:t>Path modification time - MININET SIMULATOR</a:t>
+              <a:t>Path modification time - MININET SIMULATION</a:t>
             </a:r>
+            <a:endParaRPr lang="it-IT">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12940026075619296"/>
+          <c:y val="2.5445292620865138E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1478,13 +2388,27 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1497,7 +2421,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11848135182580664"/>
+          <c:y val="0.13180890556619354"/>
+          <c:w val="0.86384796750471382"/>
+          <c:h val="0.75911064552045493"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1506,15 +2440,47 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Foglio4!$A$1:$A$10</c:f>
@@ -1556,7 +2522,260 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7A49-4479-BC85-C193456A9FA6}"/>
+              <c16:uniqueId val="{00000000-7EAB-47B8-B72B-234794AC0E56}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:axId val="564886520"/>
+        <c:axId val="564888440"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-5C7C-4343-AF26-9E7352AB1897}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-5C7C-4343-AF26-9E7352AB1897}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-5C7C-4343-AF26-9E7352AB1897}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-5C7C-4343-AF26-9E7352AB1897}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-5C7C-4343-AF26-9E7352AB1897}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-5C7C-4343-AF26-9E7352AB1897}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-5C7C-4343-AF26-9E7352AB1897}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.27473334086172735"/>
+                  <c:y val="-5.6553236188987825E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-5C7C-4343-AF26-9E7352AB1897}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-2FAF-4DB7-9602-FE6818861BC6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-2FAF-4DB7-9602-FE6818861BC6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:schemeClr val="bg2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio4!$B$1:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.0920000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0920000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0920000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0920000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0920000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0920000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0920000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0920000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0920000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0920000000000002E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-5C7C-4343-AF26-9E7352AB1897}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1568,13 +2787,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="522039528"/>
-        <c:axId val="522041168"/>
-      </c:barChart>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="564886520"/>
+        <c:axId val="564888440"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="522039528"/>
+        <c:axId val="564886520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1600,12 +2819,20 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="it-IT" sz="900"/>
-                  <a:t>samples</a:t>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Experiments</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.45952632713609615"/>
+              <c:y val="0.94916379727343247"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1641,7 +2868,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -1657,7 +2884,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1672,7 +2899,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="522041168"/>
+        <c:crossAx val="564888440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1680,9 +2907,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="522041168"/>
+        <c:axId val="564888440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="5.000000000000001E-3"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1690,16 +2919,27 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1720,12 +2960,20 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="it-IT" sz="900"/>
-                  <a:t>time(s)</a:t>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Time(s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.9048034575860538E-2"/>
+              <c:y val="0.47483205820646457"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1755,14 +3003,16 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1786,9 +3036,10 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="522039528"/>
+        <c:crossAx val="564886520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0000000000000002E-3"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1832,6 +3083,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId4"/>
 </c:chartSpace>
 </file>
 
@@ -1903,6 +3155,11 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-CC50-44ED-ADE5-711C8EA972C8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1922,6 +3179,11 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-CC50-44ED-ADE5-711C8EA972C8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1941,6 +3203,11 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-CC50-44ED-ADE5-711C8EA972C8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:numRef>
@@ -2039,6 +3306,11 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-CC50-44ED-ADE5-711C8EA972C8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2058,6 +3330,11 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-CC50-44ED-ADE5-711C8EA972C8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2077,6 +3354,11 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-CC50-44ED-ADE5-711C8EA972C8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -2096,6 +3378,11 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-CC50-44ED-ADE5-711C8EA972C8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:numRef>
@@ -3162,7 +4449,1513 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3664,1529 +6457,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>148590</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:rowOff>59054</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>99059</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5215,46 +6499,84 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Grafico 3">
-          <a:extLst>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.19904</cdr:x>
+      <cdr:y>0.12753</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.3147</cdr:x>
+      <cdr:y>0.31824</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="CasellaDiTesto 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07821879-267B-4D26-A9D1-AEA8CD903E65}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3650CE8E-0D2B-4C7F-9F86-BA9EBF1C7A25}"/>
             </a:ext>
           </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1573530" y="611506"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="it-IT" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.14892</cdr:x>
+      <cdr:y>0.38498</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.26458</cdr:x>
+      <cdr:y>0.57569</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="CasellaDiTesto 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CC199D9-C0BD-45F4-BED3-C0EAD5D26BF7}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1177290" y="1845946"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="it-IT" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5262,22 +6584,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>195262</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>500062</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Grafico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CB035B6-E430-4001-84E3-AC86048426EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DBC3F73-F143-46B7-8E8E-3D786AE79B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5299,26 +6621,107 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.19904</cdr:x>
+      <cdr:y>0.12753</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.3147</cdr:x>
+      <cdr:y>0.31824</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="CasellaDiTesto 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3650CE8E-0D2B-4C7F-9F86-BA9EBF1C7A25}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1573530" y="611506"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="it-IT" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.14892</cdr:x>
+      <cdr:y>0.38498</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.26458</cdr:x>
+      <cdr:y>0.57569</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="CasellaDiTesto 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CC199D9-C0BD-45F4-BED3-C0EAD5D26BF7}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1177290" y="1845946"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="it-IT" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>195262</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>311425</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>168965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>500062</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>510209</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>79512</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Grafico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9445B5C8-9517-46C4-94AA-317865C0F2B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA4C168F-B732-473C-BE14-7ED6191F0356}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5339,7 +6742,210 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.19904</cdr:x>
+      <cdr:y>0.12753</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.3147</cdr:x>
+      <cdr:y>0.31824</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="CasellaDiTesto 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3650CE8E-0D2B-4C7F-9F86-BA9EBF1C7A25}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1573530" y="611506"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="it-IT" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.14892</cdr:x>
+      <cdr:y>0.38498</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.26458</cdr:x>
+      <cdr:y>0.57569</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="CasellaDiTesto 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CC199D9-C0BD-45F4-BED3-C0EAD5D26BF7}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1177290" y="1845946"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="it-IT" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5D23CEA-34C2-48C1-8800-924F2AB29836}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.19904</cdr:x>
+      <cdr:y>0.12753</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.3147</cdr:x>
+      <cdr:y>0.31824</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="CasellaDiTesto 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3650CE8E-0D2B-4C7F-9F86-BA9EBF1C7A25}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1573530" y="611506"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="it-IT" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.14892</cdr:x>
+      <cdr:y>0.38498</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.26458</cdr:x>
+      <cdr:y>0.57569</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="CasellaDiTesto 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CC199D9-C0BD-45F4-BED3-C0EAD5D26BF7}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1177290" y="1845946"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="it-IT" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5675,64 +7281,950 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride2.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride3.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F959E5A9-55DA-4EB3-9264-302031E366BA}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="2">
-        <v>3.9634230000000001</v>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1">
+        <v>0.27818399999999999</v>
+      </c>
+      <c r="B1">
+        <f>AVERAGE(A1:A8)</f>
+        <v>0.31805537499999997</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>0.27818399999999999</v>
+        <v>4.4990000000000004E-3</v>
+      </c>
+      <c r="B2">
+        <f>AVERAGE(A1:A8)</f>
+        <v>0.31805537499999997</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="2">
-        <v>5.5986859999999998</v>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
+        <v>8.8248999999999994E-2</v>
+      </c>
+      <c r="B3">
+        <f>AVERAGE(A1:A8)</f>
+        <v>0.31805537499999997</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>4.4990000000000004E-3</v>
+        <v>0.444517</v>
+      </c>
+      <c r="B4">
+        <f>AVERAGE(A1:A8)</f>
+        <v>0.31805537499999997</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>8.8248999999999994E-2</v>
+        <v>0.33728000000000002</v>
+      </c>
+      <c r="B5">
+        <f>AVERAGE(A1:A8)</f>
+        <v>0.31805537499999997</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>0.444517</v>
+        <v>1.817E-3</v>
+      </c>
+      <c r="B6">
+        <f>AVERAGE(A1:A8)</f>
+        <v>0.31805537499999997</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1">
-        <v>0.33728000000000002</v>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2">
+        <v>1.0885769999999999</v>
+      </c>
+      <c r="B7">
+        <f>AVERAGE(A1:A8)</f>
+        <v>0.31805537499999997</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
-        <v>1.817E-3</v>
+        <v>0.30131999999999998</v>
+      </c>
+      <c r="B8">
+        <f>AVERAGE(A1:A8)</f>
+        <v>0.31805537499999997</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="2">
-        <v>1.0885769999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1">
-        <v>0.30131999999999998</v>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <f>AVERAGE(A1:A8)</f>
+        <v>0.31805537499999997</v>
       </c>
     </row>
   </sheetData>
@@ -5744,80 +8236,120 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FEEC1CE-7727-45B8-8837-CB256A330783}">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1">
         <v>0.32311400000000001</v>
       </c>
+      <c r="B1">
+        <f>AVERAGE(A$1:A$10)</f>
+        <v>8.3003900000000005E-2</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>5.3769999999999998E-3</v>
       </c>
+      <c r="B2">
+        <f>AVERAGE(A$1:A$10)</f>
+        <v>8.3003900000000005E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>0.16966500000000001</v>
       </c>
+      <c r="B3">
+        <f>AVERAGE(A$1:A$10)</f>
+        <v>8.3003900000000005E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>3.1700000000000001E-3</v>
       </c>
+      <c r="B4">
+        <f>AVERAGE(A$1:A$10)</f>
+        <v>8.3003900000000005E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
         <v>4.6899999999999997E-3</v>
       </c>
+      <c r="B5">
+        <f>AVERAGE(A$1:A$10)</f>
+        <v>8.3003900000000005E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>8.0492999999999995E-2</v>
       </c>
+      <c r="B6">
+        <f>AVERAGE(A$1:A$10)</f>
+        <v>8.3003900000000005E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:2">
       <c r="A7" s="1">
         <v>2.7060000000000001E-3</v>
       </c>
+      <c r="B7">
+        <f>AVERAGE(A$1:A$10)</f>
+        <v>8.3003900000000005E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>0.23216600000000001</v>
       </c>
+      <c r="B8">
+        <f>AVERAGE(A$1:A$10)</f>
+        <v>8.3003900000000005E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:2">
       <c r="A9" s="1">
         <v>4.8269999999999997E-3</v>
       </c>
+      <c r="B9">
+        <f>AVERAGE(A$1:A$10)</f>
+        <v>8.3003900000000005E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>3.8310000000000002E-3</v>
       </c>
+      <c r="B10">
+        <f>AVERAGE(A$1:A$10)</f>
+        <v>8.3003900000000005E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:2">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:2">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:2">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:2">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:2">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:2">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1">
@@ -5837,62 +8369,102 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{597CC2D0-1628-4304-9201-B279882BFBEC}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1">
         <v>6.803E-3</v>
       </c>
+      <c r="B1">
+        <f>AVERAGE(A$1:A$10)</f>
+        <v>7.3187E-3</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>7.3720000000000001E-3</v>
       </c>
+      <c r="B2">
+        <f>AVERAGE(A$1:A$10)</f>
+        <v>7.3187E-3</v>
+      </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>7.3730000000000002E-3</v>
       </c>
+      <c r="B3">
+        <f>AVERAGE(A$1:A$10)</f>
+        <v>7.3187E-3</v>
+      </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>7.3740000000000003E-3</v>
       </c>
+      <c r="B4">
+        <f>AVERAGE(A$1:A$10)</f>
+        <v>7.3187E-3</v>
+      </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>7.3749999999999996E-3</v>
       </c>
+      <c r="B5">
+        <f>AVERAGE(A$1:A$10)</f>
+        <v>7.3187E-3</v>
+      </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>7.3759999999999997E-3</v>
       </c>
+      <c r="B6">
+        <f>AVERAGE(A$1:A$10)</f>
+        <v>7.3187E-3</v>
+      </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>7.3769999999999999E-3</v>
       </c>
+      <c r="B7">
+        <f>AVERAGE(A$1:A$10)</f>
+        <v>7.3187E-3</v>
+      </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>7.378E-3</v>
       </c>
+      <c r="B8">
+        <f>AVERAGE(A$1:A$10)</f>
+        <v>7.3187E-3</v>
+      </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>7.3790000000000001E-3</v>
       </c>
+      <c r="B9">
+        <f>AVERAGE(A$1:A$10)</f>
+        <v>7.3187E-3</v>
+      </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>7.3800000000000003E-3</v>
+      </c>
+      <c r="B10">
+        <f>AVERAGE(A$1:A$10)</f>
+        <v>7.3187E-3</v>
       </c>
     </row>
   </sheetData>
@@ -5904,62 +8476,102 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF368C8-2184-493B-A249-184FC7AFC6CC}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1">
         <v>3.7420000000000001E-3</v>
       </c>
+      <c r="B1">
+        <f>AVERAGE(A$1:A$10)</f>
+        <v>4.0920000000000002E-3</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>7.8799999999999999E-3</v>
       </c>
+      <c r="B2">
+        <f>AVERAGE(A$1:A$10)</f>
+        <v>4.0920000000000002E-3</v>
+      </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>3.2560000000000002E-3</v>
       </c>
+      <c r="B3">
+        <f>AVERAGE(A$1:A$10)</f>
+        <v>4.0920000000000002E-3</v>
+      </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3.7599999999999999E-3</v>
       </c>
+      <c r="B4">
+        <f>AVERAGE(A$1:A$10)</f>
+        <v>4.0920000000000002E-3</v>
+      </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>3.4529999999999999E-3</v>
       </c>
+      <c r="B5">
+        <f>AVERAGE(A$1:A$10)</f>
+        <v>4.0920000000000002E-3</v>
+      </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>3.9069999999999999E-3</v>
       </c>
+      <c r="B6">
+        <f>AVERAGE(A$1:A$10)</f>
+        <v>4.0920000000000002E-3</v>
+      </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>3.042E-3</v>
       </c>
+      <c r="B7">
+        <f>AVERAGE(A$1:A$10)</f>
+        <v>4.0920000000000002E-3</v>
+      </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>3.4740000000000001E-3</v>
       </c>
+      <c r="B8">
+        <f>AVERAGE(A$1:A$10)</f>
+        <v>4.0920000000000002E-3</v>
+      </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>3.6380000000000002E-3</v>
       </c>
+      <c r="B9">
+        <f>AVERAGE(A$1:A$10)</f>
+        <v>4.0920000000000002E-3</v>
+      </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>4.7679999999999997E-3</v>
+      </c>
+      <c r="B10">
+        <f>AVERAGE(A$1:A$10)</f>
+        <v>4.0920000000000002E-3</v>
       </c>
     </row>
   </sheetData>
@@ -5972,11 +8584,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3F4786-3EB6-4948-8E24-C8F67C5A0B0C}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1">
